--- a/docs/平行雷达-甘特图.xlsx
+++ b/docs/平行雷达-甘特图.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621CAFD-F8C1-4D79-9CB1-D3EF4C1092D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F2E460-5D12-4482-904C-D957542CA719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,10 +291,6 @@
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
   <si>
-    <t>实习生1</t>
-    <phoneticPr fontId="37" type="noConversion"/>
-  </si>
-  <si>
     <t>3D画布</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
@@ -343,6 +339,10 @@
   </si>
   <si>
     <t>姜泰</t>
+    <phoneticPr fontId="37" type="noConversion"/>
+  </si>
+  <si>
+    <t>田泽钦</t>
     <phoneticPr fontId="37" type="noConversion"/>
   </si>
 </sst>
@@ -2007,8 +2007,8 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2878,7 +2878,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="81">
         <f>F9</f>
@@ -3119,7 +3119,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="81">
         <v>45350</v>
@@ -3414,13 +3414,13 @@
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="84">
         <v>45357</v>
@@ -3497,7 +3497,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="84">
         <v>45350</v>
@@ -3577,7 +3577,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="51">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E19" s="84">
         <f>F18</f>
@@ -3889,7 +3889,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="54">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E23" s="87">
         <f>F20</f>
@@ -3964,7 +3964,7 @@
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15"/>
       <c r="B24" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>49</v>
@@ -4041,13 +4041,13 @@
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
       <c r="B25" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="54">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E25" s="87">
         <v>45357</v>
@@ -4118,10 +4118,10 @@
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="B26" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>75</v>
       </c>
       <c r="D26" s="54">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>45357</v>
       </c>
       <c r="F26" s="87">
-        <f>E26+7</f>
+        <f t="shared" ref="F26:F31" si="6">E26+7</f>
         <v>45364</v>
       </c>
       <c r="G26" s="47"/>
@@ -4195,10 +4195,10 @@
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15"/>
       <c r="B27" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>77</v>
       </c>
       <c r="D27" s="54">
         <v>0</v>
@@ -4208,7 +4208,7 @@
         <v>45364</v>
       </c>
       <c r="F27" s="87">
-        <f>E27+7</f>
+        <f t="shared" si="6"/>
         <v>45371</v>
       </c>
       <c r="G27" s="47"/>
@@ -4276,7 +4276,7 @@
         <v>63</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D28" s="54">
         <v>0</v>
@@ -4286,7 +4286,7 @@
         <v>45377</v>
       </c>
       <c r="F28" s="87">
-        <f>E28+7</f>
+        <f t="shared" si="6"/>
         <v>45384</v>
       </c>
       <c r="G28" s="47"/>
@@ -4354,10 +4354,10 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15"/>
       <c r="B29" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D29" s="54">
         <v>0</v>
@@ -4367,7 +4367,7 @@
         <v>45377</v>
       </c>
       <c r="F29" s="87">
-        <f>E29+7</f>
+        <f t="shared" si="6"/>
         <v>45384</v>
       </c>
       <c r="G29" s="47"/>
@@ -4435,10 +4435,10 @@
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15"/>
       <c r="B30" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="54">
         <v>0</v>
@@ -4448,7 +4448,7 @@
         <v>45377</v>
       </c>
       <c r="F30" s="87">
-        <f>E30+7</f>
+        <f t="shared" si="6"/>
         <v>45384</v>
       </c>
       <c r="G30" s="47"/>
@@ -4516,10 +4516,10 @@
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="54">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>45377</v>
       </c>
       <c r="F31" s="87">
-        <f>E31+7</f>
+        <f t="shared" si="6"/>
         <v>45384</v>
       </c>
       <c r="G31" s="47"/>
@@ -4599,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="27"/>
       <c r="D32" s="56"/>
